--- a/va_facility_data_2025-02-20/Arecibo VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Arecibo%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Arecibo VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Arecibo%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R8e041fc9adcb4daeaf1eede5d8fe69ca"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rbd29f064dd6d40a282adbb036428de40"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R7ee4518ba1e8477581fa3ac043ec5902"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rafaaaa289d4644daada361d5251058ae"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rfad04910ad7545c388f90e21e48c96a7"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R5918fd4ff4c84b8d87b981427610c095"/>
   </x:sheets>
 </x:workbook>
 </file>
